--- a/Viable Titre/output_06-01.xlsx
+++ b/Viable Titre/output_06-01.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>Test1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,32 +511,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10e-6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1799999.9999999998</t>
+          <t>40909090.90909091</t>
         </is>
       </c>
     </row>
